--- a/playoffs-example-small.xlsx
+++ b/playoffs-example-small.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -84,49 +84,49 @@
     <t>Player Dojo</t>
   </si>
   <si>
+    <t>Kevin Clark</t>
+  </si>
+  <si>
+    <t>Team Alpha</t>
+  </si>
+  <si>
+    <t>Luke Rodriguez</t>
+  </si>
+  <si>
+    <t>Team Beta</t>
+  </si>
+  <si>
+    <t>Michael Lewis</t>
+  </si>
+  <si>
+    <t>Team Gamma</t>
+  </si>
+  <si>
+    <t>Nathan Lee</t>
+  </si>
+  <si>
+    <t>Team Delta</t>
+  </si>
+  <si>
+    <t>Oliver Walker</t>
+  </si>
+  <si>
+    <t>Team Epsilon</t>
+  </si>
+  <si>
+    <t>Paul Hall</t>
+  </si>
+  <si>
+    <t>Quentin Allen</t>
+  </si>
+  <si>
+    <t>Robert Young</t>
+  </si>
+  <si>
+    <t>Steven Hernandez</t>
+  </si>
+  <si>
     <t>Thomas King</t>
-  </si>
-  <si>
-    <t>Team Epsilon</t>
-  </si>
-  <si>
-    <t>Oliver Walker</t>
-  </si>
-  <si>
-    <t>Nathan Lee</t>
-  </si>
-  <si>
-    <t>Team Delta</t>
-  </si>
-  <si>
-    <t>Paul Hall</t>
-  </si>
-  <si>
-    <t>Team Alpha</t>
-  </si>
-  <si>
-    <t>Steven Hernandez</t>
-  </si>
-  <si>
-    <t>Robert Young</t>
-  </si>
-  <si>
-    <t>Team Gamma</t>
-  </si>
-  <si>
-    <t>Michael Lewis</t>
-  </si>
-  <si>
-    <t>Kevin Clark</t>
-  </si>
-  <si>
-    <t>Quentin Allen</t>
-  </si>
-  <si>
-    <t>Team Beta</t>
-  </si>
-  <si>
-    <t>Luke Rodriguez</t>
   </si>
   <si>
     <t>Match 1</t>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -505,13 +505,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -805,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="true">
@@ -813,10 +816,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="true">
@@ -824,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="true">
@@ -835,10 +838,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="true">
@@ -846,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="true">
@@ -857,10 +860,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="true">
@@ -868,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="true">
@@ -879,10 +882,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="true">
@@ -893,7 +896,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="true">
@@ -1979,313 +1982,195 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="false" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView showGridLines="false" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13"/>
   <cols>
     <col customWidth="true" max="1" min="1" width="20.83203125"/>
-    <col customWidth="true" max="3" min="3" width="20"/>
-    <col customWidth="true" max="5" min="5" width="20"/>
+    <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="22"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4">
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+    </row>
     <row r="6">
       <c r="E6" s="24" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7">
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="G8" s="20"/>
+      <c r="I8" s="21">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
-      <c r="G9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="G10" s="21">
-        <v>3</v>
-      </c>
+      <c r="E10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11">
+      <c r="F11" s="22"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
       <c r="I11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="20"/>
+      <c r="G12" s="21">
+        <v>4</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="E13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="23"/>
+      <c r="C13" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="E14" s="24"/>
-      <c r="I14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="I15" s="20"/>
+      <c r="C15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="I16" s="20"/>
+      <c r="K16" s="21">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
-      <c r="I17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18">
-      <c r="I18" s="21">
-        <v>7</v>
-      </c>
+      <c r="E18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="20"/>
     </row>
     <row r="19">
-      <c r="I19" s="20"/>
-      <c r="J19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="I20" s="20"/>
+      <c r="G20" s="21">
+        <v>5</v>
+      </c>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
-      <c r="E21" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="20"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="G24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="21">
+        <v>8</v>
+      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
-      <c r="G25" s="21">
-        <v>4</v>
-      </c>
-      <c r="H25" s="23"/>
       <c r="I25" s="20"/>
-      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="C26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="E26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="20"/>
     </row>
     <row r="27">
-      <c r="C27" s="24"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="G28" s="21">
+        <v>6</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29">
       <c r="C29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20"/>
-      <c r="K29" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="20"/>
     </row>
     <row r="30">
-      <c r="C30" s="24"/>
-      <c r="K30" s="20"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31">
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32">
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33">
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34">
-      <c r="K34" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36">
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="24"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39">
-      <c r="G39" s="20"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40">
-      <c r="G40" s="20"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41">
-      <c r="G41" s="21">
-        <v>5</v>
-      </c>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42">
-      <c r="G42" s="20"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="20"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43">
-      <c r="G43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45">
-      <c r="E45" s="24"/>
-      <c r="I45" s="20"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46">
-      <c r="I46" s="20"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47">
-      <c r="I47" s="20"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48">
-      <c r="I48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49">
-      <c r="I49" s="21">
-        <v>8</v>
-      </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50">
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51">
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52">
-      <c r="E52" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53">
-      <c r="E53" s="24"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="20"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54">
-      <c r="G54" s="20"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55">
-      <c r="G55" s="20"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56">
-      <c r="G56" s="21">
-        <v>6</v>
-      </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57">
-      <c r="C57" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="24"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="20"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59">
-      <c r="E59" s="21">
-        <v>2</v>
-      </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60">
-      <c r="C60" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61">
-      <c r="C61" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C60:C61"/>
-  </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2528,269 +2413,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="true">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="str">
+      <c r="A5" s="29" t="str">
         <f>'data'!B5</f>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="str">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="str">
         <f>'data'!B6</f>
       </c>
-      <c r="I5" s="28" t="str">
+      <c r="I5" s="29" t="str">
         <f>'data'!B10</f>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28" t="str">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29" t="str">
         <f>'data'!B11</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
         <v>1</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="29">
         <v>1</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
         <v>2</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="29">
         <v>2</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="28">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
         <v>3</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="29">
         <v>3</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
         <v>4</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="29">
         <v>4</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <v>5</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
         <v>5</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="29">
         <v>5</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="str">
+      <c r="A12" s="29" t="str">
         <f>'data'!B5</f>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="29" t="str">
         <f>'data'!B6</f>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="29" t="str">
         <f>'data'!B10</f>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="28" t="str">
+      <c r="O12" s="29" t="str">
         <f>'data'!B11</f>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2815,269 +2700,269 @@
       <c r="O16" s="23"/>
     </row>
     <row r="24">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="I26" s="24" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="I26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="28" t="str">
+      <c r="A28" s="29" t="str">
         <f>'data'!B2</f>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28" t="str">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29" t="str">
         <f>'data'!B3</f>
       </c>
-      <c r="I28" s="28" t="str">
+      <c r="I28" s="29" t="str">
         <f>'data'!B4</f>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28" t="str">
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="28">
+      <c r="A29" s="29">
         <v>1</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29">
         <v>1</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="29">
         <v>1</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28">
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="28">
+      <c r="A30" s="29">
         <v>2</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29">
         <v>2</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="29">
         <v>2</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="28">
+      <c r="A31" s="29">
         <v>3</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29">
         <v>3</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="29">
         <v>3</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28">
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="28">
+      <c r="A32" s="29">
         <v>4</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29">
         <v>4</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="29">
         <v>4</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="28">
+      <c r="A33" s="29">
         <v>5</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29">
         <v>5</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="29">
         <v>5</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28">
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="str">
+      <c r="A35" s="29" t="str">
         <f>'data'!B2</f>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="28" t="str">
+      <c r="G35" s="29" t="str">
         <f>'data'!B3</f>
       </c>
-      <c r="I35" s="28" t="str">
+      <c r="I35" s="29" t="str">
         <f>'data'!B4</f>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28" t="s">
+      <c r="L35" s="29"/>
+      <c r="M35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="28" t="s">
+      <c r="N35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="28" t="str">
+      <c r="O35" s="29" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28" t="s">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3102,250 +2987,250 @@
       <c r="O39" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="I42" s="24" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="I42" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O43" s="34" t="s">
+      <c r="O43" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="str">
+      <c r="A44" s="29" t="str">
         <f>'data'!B7</f>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28" t="str">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29" t="str">
         <f>'data'!B8</f>
       </c>
-      <c r="I44" s="28" t="str">
+      <c r="I44" s="29" t="str">
         <f>'data'!B9</f>
       </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28" t="str">
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="28">
+      <c r="A45" s="29">
         <v>1</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29">
         <v>1</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="29">
         <v>1</v>
       </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28">
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="28">
+      <c r="A46" s="29">
         <v>2</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29">
         <v>2</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="29">
         <v>2</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28">
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="28">
+      <c r="A47" s="29">
         <v>3</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29">
         <v>3</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="29">
         <v>3</v>
       </c>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28">
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="28">
+      <c r="A48" s="29">
         <v>4</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29">
         <v>4</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="29">
         <v>4</v>
       </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28">
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="28">
+      <c r="A49" s="29">
         <v>5</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29">
         <v>5</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="29">
         <v>5</v>
       </c>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28">
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="28" t="str">
+      <c r="A51" s="29" t="str">
         <f>'data'!B7</f>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28" t="s">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="28" t="str">
+      <c r="G51" s="29" t="str">
         <f>'data'!B8</f>
       </c>
-      <c r="I51" s="28" t="str">
+      <c r="I51" s="29" t="str">
         <f>'data'!B9</f>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="28" t="s">
+      <c r="K51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28" t="s">
+      <c r="L51" s="29"/>
+      <c r="M51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="28" t="s">
+      <c r="N51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="28" t="str">
+      <c r="O51" s="29" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="I52" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28" t="s">
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3370,269 +3255,269 @@
       <c r="O55" s="23"/>
     </row>
     <row r="63">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
     </row>
     <row r="65">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="I65" s="24" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="I65" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
     </row>
     <row r="66">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="G66" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I66" s="27" t="s">
+      <c r="I66" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L66" s="28" t="s">
+      <c r="L66" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O66" s="36" t="s">
+      <c r="O66" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="28" t="str">
+      <c r="A67" s="29" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28" t="str">
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O38)</f>
       </c>
-      <c r="I67" s="28" t="str">
+      <c r="I67" s="29" t="str">
         <f>CONCATENATE("M 5 ",'Elimination Matches'!G54)</f>
       </c>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28" t="str">
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29" t="str">
         <f>CONCATENATE("M 6 ",'Elimination Matches'!O54)</f>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="28">
+      <c r="A68" s="29">
         <v>1</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28">
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29">
         <v>1</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="29">
         <v>1</v>
       </c>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28">
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="28">
+      <c r="A69" s="29">
         <v>2</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28">
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29">
         <v>2</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="29">
         <v>2</v>
       </c>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28">
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="28">
+      <c r="A70" s="29">
         <v>3</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29">
         <v>3</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="29">
         <v>3</v>
       </c>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28">
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="28">
+      <c r="A71" s="29">
         <v>4</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29">
         <v>4</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="29">
         <v>4</v>
       </c>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28">
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="28">
+      <c r="A72" s="29">
         <v>5</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29">
         <v>5</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="29">
         <v>5</v>
       </c>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28">
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="28" t="str">
+      <c r="A74" s="29" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28" t="s">
+      <c r="D74" s="29"/>
+      <c r="E74" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G74" s="28" t="str">
+      <c r="G74" s="29" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O38)</f>
       </c>
-      <c r="I74" s="28" t="str">
+      <c r="I74" s="29" t="str">
         <f>CONCATENATE("M 5 ",'Elimination Matches'!G54)</f>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K74" s="28" t="s">
+      <c r="K74" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28" t="s">
+      <c r="L74" s="29"/>
+      <c r="M74" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N74" s="28" t="s">
+      <c r="N74" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O74" s="28" t="str">
+      <c r="O74" s="29" t="str">
         <f>CONCATENATE("M 6 ",'Elimination Matches'!O54)</f>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I75" s="28" t="s">
+      <c r="I75" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28" t="s">
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3657,155 +3542,155 @@
       <c r="O78" s="23"/>
     </row>
     <row r="86">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
     </row>
     <row r="88">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
     </row>
     <row r="89">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G89" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="28" t="str">
+      <c r="A90" s="29" t="str">
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G77)</f>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28" t="str">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29" t="str">
         <f>CONCATENATE("M 8 ",'Elimination Matches'!O77)</f>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="28">
+      <c r="A91" s="29">
         <v>1</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28">
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="28">
+      <c r="A92" s="29">
         <v>2</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28">
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="28">
+      <c r="A93" s="29">
         <v>3</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28">
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="28">
+      <c r="A94" s="29">
         <v>4</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="28">
+      <c r="A95" s="29">
         <v>5</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28">
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="28" t="str">
+      <c r="A97" s="29" t="str">
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G77)</f>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28" t="s">
+      <c r="D97" s="29"/>
+      <c r="E97" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G97" s="28" t="str">
+      <c r="G97" s="29" t="str">
         <f>CONCATENATE("M 8 ",'Elimination Matches'!O77)</f>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29" t="s">
         <v>35</v>
       </c>
     </row>

--- a/playoffs-example-small.xlsx
+++ b/playoffs-example-small.xlsx
@@ -1992,183 +1992,183 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
     <row r="6">
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="I8" s="21">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>4</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>4</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>5</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
-      <c r="E22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
+      <c r="E23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>8</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>6</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>2</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>

--- a/playoffs-example-small.xlsx
+++ b/playoffs-example-small.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -568,60 +568,60 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <themeElements>
-    <clrScheme name="Sheets">
-      <dk1>
-        <srgbClr val="000000"/>
-      </dk1>
-      <lt1>
-        <srgbClr val="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="000000"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="FFFFFF"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="4F81BD"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="C0504D"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="9BBB59"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="8064A2"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4BACC6"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="F79646"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0000FF"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="0000FF"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Sheets">
-      <majorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -677,8 +677,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -700,8 +700,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -717,8 +717,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -755,12 +755,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,6 +1992,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>14</v>
@@ -2431,6 +2433,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="27" t="s">
         <v>29</v>
@@ -2473,7 +2476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="29" t="str">
-        <f>'data'!B5</f>
+        <f>'data'!$B$5</f>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -2481,10 +2484,10 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29" t="str">
-        <f>'data'!B6</f>
+        <f>'data'!$B$6</f>
       </c>
       <c r="I5" s="29" t="str">
-        <f>'data'!B10</f>
+        <f>'data'!$B$10</f>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -2492,7 +2495,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="29" t="str">
-        <f>'data'!B11</f>
+        <f>'data'!$B$11</f>
       </c>
     </row>
     <row r="6">
@@ -2615,9 +2618,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="29" t="str">
-        <f>'data'!B5</f>
+        <f>'data'!$B$5</f>
       </c>
       <c r="B12" s="29" t="s">
         <v>33</v>
@@ -2633,10 +2637,10 @@
         <v>33</v>
       </c>
       <c r="G12" s="29" t="str">
-        <f>'data'!B6</f>
+        <f>'data'!$B$6</f>
       </c>
       <c r="I12" s="29" t="str">
-        <f>'data'!B10</f>
+        <f>'data'!$B$10</f>
       </c>
       <c r="J12" s="29" t="s">
         <v>33</v>
@@ -2652,7 +2656,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="29" t="str">
-        <f>'data'!B11</f>
+        <f>'data'!$B$11</f>
       </c>
     </row>
     <row r="13">
@@ -2679,6 +2683,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
         <v>36</v>
@@ -2699,6 +2704,13 @@
       </c>
       <c r="O16" s="23"/>
     </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="27" t="s">
         <v>39</v>
@@ -2718,6 +2730,7 @@
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="27" t="s">
         <v>40</v>
@@ -2760,7 +2773,7 @@
     </row>
     <row r="28">
       <c r="A28" s="29" t="str">
-        <f>'data'!B2</f>
+        <f>'data'!$B$2</f>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -2768,10 +2781,10 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29" t="str">
-        <f>'data'!B3</f>
+        <f>'data'!$B$3</f>
       </c>
       <c r="I28" s="29" t="str">
-        <f>'data'!B4</f>
+        <f>'data'!$B$4</f>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -2902,9 +2915,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="34"/>
     <row r="35">
       <c r="A35" s="29" t="str">
-        <f>'data'!B2</f>
+        <f>'data'!$B$2</f>
       </c>
       <c r="B35" s="29" t="s">
         <v>33</v>
@@ -2920,10 +2934,10 @@
         <v>33</v>
       </c>
       <c r="G35" s="29" t="str">
-        <f>'data'!B3</f>
+        <f>'data'!$B$3</f>
       </c>
       <c r="I35" s="29" t="str">
-        <f>'data'!B4</f>
+        <f>'data'!$B$4</f>
       </c>
       <c r="J35" s="29" t="s">
         <v>33</v>
@@ -2966,6 +2980,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="37"/>
     <row r="38">
       <c r="F38" s="7" t="s">
         <v>36</v>
@@ -2986,6 +3001,8 @@
       </c>
       <c r="O39" s="23"/>
     </row>
+    <row r="40"/>
+    <row r="41"/>
     <row r="42">
       <c r="A42" s="27" t="s">
         <v>42</v>
@@ -3028,7 +3045,7 @@
     </row>
     <row r="44">
       <c r="A44" s="29" t="str">
-        <f>'data'!B7</f>
+        <f>'data'!$B$7</f>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -3036,10 +3053,10 @@
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29" t="str">
-        <f>'data'!B8</f>
+        <f>'data'!$B$8</f>
       </c>
       <c r="I44" s="29" t="str">
-        <f>'data'!B9</f>
+        <f>'data'!$B$9</f>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -3170,9 +3187,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="50"/>
     <row r="51">
       <c r="A51" s="29" t="str">
-        <f>'data'!B7</f>
+        <f>'data'!$B$7</f>
       </c>
       <c r="B51" s="29" t="s">
         <v>33</v>
@@ -3188,10 +3206,10 @@
         <v>33</v>
       </c>
       <c r="G51" s="29" t="str">
-        <f>'data'!B8</f>
+        <f>'data'!$B$8</f>
       </c>
       <c r="I51" s="29" t="str">
-        <f>'data'!B9</f>
+        <f>'data'!$B$9</f>
       </c>
       <c r="J51" s="29" t="s">
         <v>33</v>
@@ -3234,6 +3252,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="53"/>
     <row r="54">
       <c r="F54" s="7" t="s">
         <v>36</v>
@@ -3254,6 +3273,13 @@
       </c>
       <c r="O55" s="23"/>
     </row>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
     <row r="63">
       <c r="A63" s="27" t="s">
         <v>44</v>
@@ -3273,6 +3299,7 @@
       <c r="N63" s="27"/>
       <c r="O63" s="27"/>
     </row>
+    <row r="64"/>
     <row r="65">
       <c r="A65" s="27" t="s">
         <v>45</v>
@@ -3457,6 +3484,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="73"/>
     <row r="74">
       <c r="A74" s="29" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
@@ -3521,6 +3549,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="76"/>
     <row r="77">
       <c r="F77" s="7" t="s">
         <v>36</v>
@@ -3541,6 +3570,13 @@
       </c>
       <c r="O78" s="23"/>
     </row>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
     <row r="86">
       <c r="A86" s="27" t="s">
         <v>47</v>
@@ -3560,6 +3596,7 @@
       <c r="N86" s="27"/>
       <c r="O86" s="27"/>
     </row>
+    <row r="87"/>
     <row r="88">
       <c r="A88" s="27" t="s">
         <v>48</v>
@@ -3660,6 +3697,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="96"/>
     <row r="97">
       <c r="A97" s="29" t="str">
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G77)</f>
@@ -3694,6 +3732,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="99"/>
     <row r="100">
       <c r="F100" s="7" t="s">
         <v>36</v>
@@ -3749,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -3761,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -3773,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -3785,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -3797,7 +3836,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -3809,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -3821,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -3833,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -3845,7 +3884,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="26" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -3857,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="26" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">

--- a/playoffs-example-small.xlsx
+++ b/playoffs-example-small.xlsx
@@ -329,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -393,39 +393,38 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -440,7 +439,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -508,46 +506,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>

--- a/playoffs-example-small.xlsx
+++ b/playoffs-example-small.xlsx
@@ -198,116 +198,111 @@
   </numFmts>
   <fonts count="16">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <u/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <u/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <i val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="72"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="72"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="110"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
